--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Areg-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Areg-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Areg</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Areg</t>
-  </si>
-  <si>
-    <t>Egfr</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2806903333333333</v>
+        <v>0.2572186666666667</v>
       </c>
       <c r="H2">
-        <v>0.842071</v>
+        <v>0.771656</v>
       </c>
       <c r="I2">
-        <v>0.2582678619187009</v>
+        <v>0.3584158204297983</v>
       </c>
       <c r="J2">
-        <v>0.2582678619187009</v>
+        <v>0.3584158204297984</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N2">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q2">
-        <v>0.5205603393072222</v>
+        <v>0.3526149826248889</v>
       </c>
       <c r="R2">
-        <v>4.685043053765</v>
+        <v>3.173534843624</v>
       </c>
       <c r="S2">
-        <v>0.004264962242854602</v>
+        <v>0.003953553410028426</v>
       </c>
       <c r="T2">
-        <v>0.004264962242854604</v>
+        <v>0.003953553410028426</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2806903333333333</v>
+        <v>0.2572186666666667</v>
       </c>
       <c r="H3">
-        <v>0.842071</v>
+        <v>0.771656</v>
       </c>
       <c r="I3">
-        <v>0.2582678619187009</v>
+        <v>0.3584158204297983</v>
       </c>
       <c r="J3">
-        <v>0.2582678619187009</v>
+        <v>0.3584158204297984</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P3">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q3">
-        <v>26.07998425436478</v>
+        <v>23.89914428805422</v>
       </c>
       <c r="R3">
-        <v>234.719858289283</v>
+        <v>215.092298592488</v>
       </c>
       <c r="S3">
-        <v>0.2136738812778877</v>
+        <v>0.2679595254105035</v>
       </c>
       <c r="T3">
-        <v>0.2136738812778877</v>
+        <v>0.2679595254105035</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2806903333333333</v>
+        <v>0.2572186666666667</v>
       </c>
       <c r="H4">
-        <v>0.842071</v>
+        <v>0.771656</v>
       </c>
       <c r="I4">
-        <v>0.2582678619187009</v>
+        <v>0.3584158204297983</v>
       </c>
       <c r="J4">
-        <v>0.2582678619187009</v>
+        <v>0.3584158204297984</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N4">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q4">
-        <v>4.876851857413889</v>
+        <v>7.644148829834666</v>
       </c>
       <c r="R4">
-        <v>43.891666716725</v>
+        <v>68.79733946851199</v>
       </c>
       <c r="S4">
-        <v>0.03995615390820267</v>
+        <v>0.0857069386217978</v>
       </c>
       <c r="T4">
-        <v>0.03995615390820268</v>
+        <v>0.0857069386217978</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2806903333333333</v>
+        <v>0.2572186666666667</v>
       </c>
       <c r="H5">
-        <v>0.842071</v>
+        <v>0.771656</v>
       </c>
       <c r="I5">
-        <v>0.2582678619187009</v>
+        <v>0.3584158204297983</v>
       </c>
       <c r="J5">
-        <v>0.2582678619187009</v>
+        <v>0.3584158204297984</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N5">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O5">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P5">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q5">
-        <v>0.04551000788533334</v>
+        <v>0.07097717609866666</v>
       </c>
       <c r="R5">
-        <v>0.409590070968</v>
+        <v>0.638794584888</v>
       </c>
       <c r="S5">
-        <v>0.0003728644897559314</v>
+        <v>0.0007958029874685905</v>
       </c>
       <c r="T5">
-        <v>0.0003728644897559315</v>
+        <v>0.0007958029874685905</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.326221</v>
+        <v>0.4604356666666667</v>
       </c>
       <c r="H6">
-        <v>0.9786630000000001</v>
+        <v>1.381307</v>
       </c>
       <c r="I6">
-        <v>0.3001613884683615</v>
+        <v>0.6415841795702016</v>
       </c>
       <c r="J6">
-        <v>0.3001613884683614</v>
+        <v>0.6415841795702016</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N6">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q6">
-        <v>0.6050002236716667</v>
+        <v>0.631200358455889</v>
       </c>
       <c r="R6">
-        <v>5.445002013045</v>
+        <v>5.680803226103</v>
       </c>
       <c r="S6">
-        <v>0.00495678006186986</v>
+        <v>0.007077079683364267</v>
       </c>
       <c r="T6">
-        <v>0.00495678006186986</v>
+        <v>0.007077079683364266</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.326221</v>
+        <v>0.4604356666666667</v>
       </c>
       <c r="H7">
-        <v>0.9786630000000001</v>
+        <v>1.381307</v>
       </c>
       <c r="I7">
-        <v>0.3001613884683615</v>
+        <v>0.6415841795702016</v>
       </c>
       <c r="J7">
-        <v>0.3001613884683614</v>
+        <v>0.6415841795702016</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P7">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q7">
-        <v>30.31040806574434</v>
+        <v>42.78079260590123</v>
       </c>
       <c r="R7">
-        <v>272.793672591699</v>
+        <v>385.027133453111</v>
       </c>
       <c r="S7">
-        <v>0.2483338360697155</v>
+        <v>0.479662399004487</v>
       </c>
       <c r="T7">
-        <v>0.2483338360697155</v>
+        <v>0.4796623990044869</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.326221</v>
+        <v>0.4604356666666667</v>
       </c>
       <c r="H8">
-        <v>0.9786630000000001</v>
+        <v>1.381307</v>
       </c>
       <c r="I8">
-        <v>0.3001613884683615</v>
+        <v>0.6415841795702016</v>
       </c>
       <c r="J8">
-        <v>0.3001613884683614</v>
+        <v>0.6415841795702016</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N8">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q8">
-        <v>5.667924045991668</v>
+        <v>13.68344999286267</v>
       </c>
       <c r="R8">
-        <v>51.011316413925</v>
+        <v>123.151049935764</v>
       </c>
       <c r="S8">
-        <v>0.04643742564731877</v>
+        <v>0.1534201694367175</v>
       </c>
       <c r="T8">
-        <v>0.04643742564731876</v>
+        <v>0.1534201694367175</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.326221</v>
+        <v>0.4604356666666667</v>
       </c>
       <c r="H9">
-        <v>0.9786630000000001</v>
+        <v>1.381307</v>
       </c>
       <c r="I9">
-        <v>0.3001613884683615</v>
+        <v>0.6415841795702016</v>
       </c>
       <c r="J9">
-        <v>0.3001613884683614</v>
+        <v>0.6415841795702016</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N9">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O9">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P9">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q9">
-        <v>0.05289216805600001</v>
+        <v>0.1270530782956667</v>
       </c>
       <c r="R9">
-        <v>0.4760295125040001</v>
+        <v>1.143477704661</v>
       </c>
       <c r="S9">
-        <v>0.0004333466894573132</v>
+        <v>0.001424531445632868</v>
       </c>
       <c r="T9">
-        <v>0.0004333466894573132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.4799073333333334</v>
-      </c>
-      <c r="H10">
-        <v>1.439722</v>
-      </c>
-      <c r="I10">
-        <v>0.4415707496129376</v>
-      </c>
-      <c r="J10">
-        <v>0.4415707496129376</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.854571666666667</v>
-      </c>
-      <c r="N10">
-        <v>5.563715</v>
-      </c>
-      <c r="O10">
-        <v>0.01651371646154392</v>
-      </c>
-      <c r="P10">
-        <v>0.01651371646154392</v>
-      </c>
-      <c r="Q10">
-        <v>0.8900225430255557</v>
-      </c>
-      <c r="R10">
-        <v>8.010202887230001</v>
-      </c>
-      <c r="S10">
-        <v>0.007291974156819456</v>
-      </c>
-      <c r="T10">
-        <v>0.007291974156819456</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.4799073333333334</v>
-      </c>
-      <c r="H11">
-        <v>1.439722</v>
-      </c>
-      <c r="I11">
-        <v>0.4415707496129376</v>
-      </c>
-      <c r="J11">
-        <v>0.4415707496129376</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>92.91372433333333</v>
-      </c>
-      <c r="N11">
-        <v>278.741173</v>
-      </c>
-      <c r="O11">
-        <v>0.8273343794712995</v>
-      </c>
-      <c r="P11">
-        <v>0.8273343794712996</v>
-      </c>
-      <c r="Q11">
-        <v>44.58997767487845</v>
-      </c>
-      <c r="R11">
-        <v>401.309799073906</v>
-      </c>
-      <c r="S11">
-        <v>0.3653266621236963</v>
-      </c>
-      <c r="T11">
-        <v>0.3653266621236963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.4799073333333334</v>
-      </c>
-      <c r="H12">
-        <v>1.439722</v>
-      </c>
-      <c r="I12">
-        <v>0.4415707496129376</v>
-      </c>
-      <c r="J12">
-        <v>0.4415707496129376</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>17.37449166666667</v>
-      </c>
-      <c r="N12">
-        <v>52.123475</v>
-      </c>
-      <c r="O12">
-        <v>0.1547081917640233</v>
-      </c>
-      <c r="P12">
-        <v>0.1547081917640233</v>
-      </c>
-      <c r="Q12">
-        <v>8.338145963772224</v>
-      </c>
-      <c r="R12">
-        <v>75.04331367395001</v>
-      </c>
-      <c r="S12">
-        <v>0.06831461220850187</v>
-      </c>
-      <c r="T12">
-        <v>0.06831461220850187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.4799073333333334</v>
-      </c>
-      <c r="H13">
-        <v>1.439722</v>
-      </c>
-      <c r="I13">
-        <v>0.4415707496129376</v>
-      </c>
-      <c r="J13">
-        <v>0.4415707496129376</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.162136</v>
-      </c>
-      <c r="N13">
-        <v>0.4864080000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.001443712303133186</v>
-      </c>
-      <c r="P13">
-        <v>0.001443712303133187</v>
-      </c>
-      <c r="Q13">
-        <v>0.07781025539733336</v>
-      </c>
-      <c r="R13">
-        <v>0.7002922985760002</v>
-      </c>
-      <c r="S13">
-        <v>0.0006375011239199416</v>
-      </c>
-      <c r="T13">
-        <v>0.0006375011239199418</v>
+        <v>0.001424531445632868</v>
       </c>
     </row>
   </sheetData>
